--- a/InputData/hydgn/HPEC/Hydrogen Production Eqpt Costs.xlsx
+++ b/InputData/hydgn/HPEC/Hydrogen Production Eqpt Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\hydgn\HPEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>HPEC Hydrogen Production Equipment CapEx</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>OpEx Cost ($/BTU)</t>
+  </si>
+  <si>
+    <t>India:US cost adjustment</t>
+  </si>
+  <si>
+    <t>see "scaling-factors.xlsx in the InputData folder for source information.</t>
   </si>
 </sst>
 </file>
@@ -668,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -915,6 +921,21 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>0.50596615326007366</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1263,9 @@
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1361,140 +1384,140 @@
         <v>7</v>
       </c>
       <c r="B2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,B$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7520591062805481E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,B$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.3924487595491251E-5</v>
       </c>
       <c r="C2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,C$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7050153608740382E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,C$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.3686462166508471E-5</v>
       </c>
       <c r="D2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,D$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.6579716154675392E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,D$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.3448436737525744E-5</v>
       </c>
       <c r="E2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,E$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.6109278700610286E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,E$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.3210411308542961E-5</v>
       </c>
       <c r="F2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,F$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.5638841246545299E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,F$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.2972385879560236E-5</v>
       </c>
       <c r="G2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,G$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.5168403792480193E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,G$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.2734360450577452E-5</v>
       </c>
       <c r="H2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,H$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.469796633841509E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,H$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.249633502159467E-5</v>
       </c>
       <c r="I2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,I$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.4227528884350103E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,I$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.2258309592611945E-5</v>
       </c>
       <c r="J2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,J$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.3757091430284997E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,J$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.2020284163629161E-5</v>
       </c>
       <c r="K2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,K$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.328665397622001E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,K$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.1782258734646438E-5</v>
       </c>
       <c r="L2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,L$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.2816216522154904E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,L$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.1544233305663652E-5</v>
       </c>
       <c r="M2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,M$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.2345779068089914E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,M$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.1306207876680928E-5</v>
       </c>
       <c r="N2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,N$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.1875341614024811E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,N$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.1068182447698145E-5</v>
       </c>
       <c r="O2" s="12">
-        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,O$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.1404904159959821E-5</v>
+        <f>TREND('IEA Data'!$D2:$E2,'IEA Data'!$D$15:$E$15,O$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.0830157018715419E-5</v>
       </c>
       <c r="P2" s="14">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,P$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.1022673728531968E-5</v>
-      </c>
-      <c r="Q2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,Q$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.0640443297104115E-5</v>
-      </c>
-      <c r="R2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,R$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.0258212865676262E-5</v>
-      </c>
-      <c r="S2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,S$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.9875982434248403E-5</v>
-      </c>
-      <c r="T2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,T$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.949375200282055E-5</v>
-      </c>
-      <c r="U2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,U$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.9111521571392698E-5</v>
-      </c>
-      <c r="V2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,V$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.8729291139964845E-5</v>
-      </c>
-      <c r="W2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,W$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.8347060708536989E-5</v>
-      </c>
-      <c r="X2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,X$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.7964830277109136E-5</v>
-      </c>
-      <c r="Y2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,Y$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.7582599845681283E-5</v>
-      </c>
-      <c r="Z2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,Z$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.7200369414253427E-5</v>
-      </c>
-      <c r="AA2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AA$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.6818138982825571E-5</v>
-      </c>
-      <c r="AB2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AB$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.6435908551397718E-5</v>
-      </c>
-      <c r="AC2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AC$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.6053678119969865E-5</v>
-      </c>
-      <c r="AD2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AD$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.5671447688542013E-5</v>
-      </c>
-      <c r="AE2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AE$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.5289217257114157E-5</v>
-      </c>
-      <c r="AF2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AF$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.4906986825686302E-5</v>
-      </c>
-      <c r="AG2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AG$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.4524756394258449E-5</v>
-      </c>
-      <c r="AH2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AH$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.4142525962830597E-5</v>
-      </c>
-      <c r="AI2" s="12">
-        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AI$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>1.3760295531402741E-5</v>
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,P$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.0636761357666929E-5</v>
+      </c>
+      <c r="Q2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,Q$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.0443365696618441E-5</v>
+      </c>
+      <c r="R2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,R$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.0249970035569952E-5</v>
+      </c>
+      <c r="S2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,S$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.0056574374521459E-5</v>
+      </c>
+      <c r="T2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,T$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>9.8631787134729705E-6</v>
+      </c>
+      <c r="U2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,U$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>9.6697830524244822E-6</v>
+      </c>
+      <c r="V2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,V$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>9.4763873913759921E-6</v>
+      </c>
+      <c r="W2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,W$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>9.2829917303275021E-6</v>
+      </c>
+      <c r="X2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,X$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>9.089596069279012E-6</v>
+      </c>
+      <c r="Y2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,Y$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>8.8962004082305237E-6</v>
+      </c>
+      <c r="Z2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,Z$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>8.7028047471820336E-6</v>
+      </c>
+      <c r="AA2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AA$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>8.5094090861335419E-6</v>
+      </c>
+      <c r="AB2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AB$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>8.3160134250850535E-6</v>
+      </c>
+      <c r="AC2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AC$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>8.1226177640365635E-6</v>
+      </c>
+      <c r="AD2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AD$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>7.9292221029880751E-6</v>
+      </c>
+      <c r="AE2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AE$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>7.7358264419395851E-6</v>
+      </c>
+      <c r="AF2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AF$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>7.5424307808910942E-6</v>
+      </c>
+      <c r="AG2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AG$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>7.3490351198426058E-6</v>
+      </c>
+      <c r="AH2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AH$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>7.1556394587941166E-6</v>
+      </c>
+      <c r="AI2" s="17">
+        <f>TREND('IEA Data'!$E2:$F2,'IEA Data'!$E$15:$F$15,AI$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>6.9622437977456257E-6</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -1502,140 +1525,140 @@
         <v>16</v>
       </c>
       <c r="B3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,B$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,B$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="C3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,C$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,C$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="D3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,D$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,D$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="E3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,E$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,E$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="F3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,F$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,F$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="G3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,G$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,G$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="H3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,H$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,H$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="I3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,I$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,I$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="J3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,J$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,J$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="K3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,K$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,K$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="L3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,L$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,L$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="M3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,M$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,M$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="N3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,N$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,N$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="O3" s="12">
-        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,O$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$D6:$E6,'IEA Data'!$D$15:$E$15,O$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
       <c r="P3" s="14">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,P$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="Q3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,Q$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="R3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,R$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="S3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,S$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="T3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,T$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="U3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,U$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="V3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,V$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="W3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,W$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="X3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,X$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="Y3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,Y$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="Z3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,Z$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AA3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AA$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AB3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AB$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AC3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AC$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AD3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AD$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AE3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AE$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AF3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AF$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AG3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AG$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AH3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AH$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
-      </c>
-      <c r="AI3" s="12">
-        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AI$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>2.7826375407947768E-5</v>
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,P$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="Q3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,Q$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="R3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,R$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="S3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,S$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="T3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,T$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="U3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,U$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="V3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,V$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="W3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,W$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="X3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,X$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="Y3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,Y$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="Z3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,Z$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AA3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AA$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AB3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AB$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AC3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AC$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AD3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AD$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AE3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AE$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AF3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AF$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AG3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AG$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AH3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AH$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
+      </c>
+      <c r="AI3" s="17">
+        <f>TREND('IEA Data'!$E6:$F6,'IEA Data'!$E$15:$F$15,AI$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>1.4079204124330045E-5</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -1643,140 +1666,140 @@
         <v>19</v>
       </c>
       <c r="B4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,B$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,B$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="C4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,C$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,C$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="D4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,D$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,D$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="E4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,E$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,E$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="F4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,F$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,F$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="G4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,G$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,G$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="H4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,H$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,H$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="I4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,I$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,I$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="J4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,J$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,J$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="K4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,K$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,K$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="L4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,L$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,L$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="M4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,M$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,M$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="N4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,N$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,N$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="O4" s="12">
-        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,O$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$D10:$E10,'IEA Data'!$D$15:$E$15,O$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="P4" s="14">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,P$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="Q4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,Q$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="R4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,R$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="S4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,S$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="T4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,T$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="U4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,U$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="V4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,V$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="W4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,W$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="X4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,X$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="Y4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,Y$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="Z4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,Z$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AA4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AA$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AB4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AB$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AC4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AC$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AD4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AD$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AE4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AE$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AF4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AF$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AG4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AG$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AH4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AH$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
-      </c>
-      <c r="AI4" s="12">
-        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AI$1)/hours_per_year/btu_per_kwh*usd_year_conv</f>
-        <v>8.1644420152989595E-5</v>
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,P$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,Q$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="R4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,R$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="S4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,S$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="T4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,T$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="U4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,U$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="V4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,V$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="W4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,W$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="X4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,X$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="Y4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,Y$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="Z4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,Z$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AA4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AA$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AB4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AB$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AC4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AC$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AD4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AD$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AE4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AE$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AF4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AF$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AG4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AG$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AH4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AH$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
+      </c>
+      <c r="AI4" s="17">
+        <f>TREND('IEA Data'!$E10:$F10,'IEA Data'!$E$15:$F$15,AI$1)/hours_per_year/btu_per_kwh*usd_year_conv*About!$A$57</f>
+        <v>4.1309313199957377E-5</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
@@ -1785,139 +1808,139 @@
       </c>
       <c r="B5" s="12">
         <f>B4</f>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="C5" s="12">
-        <f t="shared" ref="C5:P5" si="0">C4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="C5:O5" si="0">C4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" si="0"/>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="P5" si="1">P4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" ref="Q5" si="1">Q4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="Q5" si="2">Q4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" ref="R5" si="2">R4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="R5" si="3">R4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="3">S4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="S5" si="4">S4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" ref="T5" si="4">T4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="T5" si="5">T4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" ref="U5" si="5">U4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="U5" si="6">U4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" ref="V5" si="6">V4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="V5" si="7">V4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="7">W4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="W5" si="8">W4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" ref="X5" si="8">X4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="X5" si="9">X4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" ref="Y5" si="9">Y4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="Y5" si="10">Y4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" ref="Z5" si="10">Z4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="Z5" si="11">Z4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="11">AA4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AA5" si="12">AA4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" ref="AB5" si="12">AB4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AB5" si="13">AB4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" ref="AC5" si="13">AC4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AC5" si="14">AC4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" ref="AD5" si="14">AD4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AD5" si="15">AD4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" ref="AE5" si="15">AE4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AE5" si="16">AE4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" ref="AF5" si="16">AF4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AF5" si="17">AF4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" ref="AG5" si="17">AG4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AG5" si="18">AG4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" ref="AH5" si="18">AH4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AH5" si="19">AH4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" ref="AI5" si="19">AI4</f>
-        <v>8.1644420152989595E-5</v>
+        <f t="shared" ref="AI5" si="20">AI4</f>
+        <v>4.1309313199957377E-5</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -1928,135 +1951,135 @@
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" ref="C6:R6" si="20">$B6</f>
+        <f t="shared" ref="C6:R6" si="21">$B6</f>
         <v>0</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R6" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S6" s="11">
-        <f t="shared" ref="S6:AI6" si="21">$B6</f>
+        <f t="shared" ref="S6:AI6" si="22">$B6</f>
         <v>0</v>
       </c>
       <c r="T6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI6" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2095,9 @@
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2191,140 +2216,140 @@
         <v>7</v>
       </c>
       <c r="B2" s="17">
-        <f>HPEC!B2*'IEA Data'!$D$4</f>
-        <v>4.1280886594208218E-7</v>
+        <f>HPEC!B2*'IEA Data'!$D$4*About!$A$57</f>
+        <v>1.0567979137212481E-7</v>
       </c>
       <c r="C2" s="17">
         <f>HPEC!C2*'IEA Data'!$D$4</f>
-        <v>4.057523041311057E-7</v>
+        <v>2.0529693249762705E-7</v>
       </c>
       <c r="D2" s="17">
         <f>HPEC!D2*'IEA Data'!$D$4</f>
-        <v>3.9869574232013086E-7</v>
+        <v>2.0172655106288616E-7</v>
       </c>
       <c r="E2" s="17">
         <f>HPEC!E2*'IEA Data'!$D$4</f>
-        <v>3.9163918050915428E-7</v>
+        <v>1.9815616962814441E-7</v>
       </c>
       <c r="F2" s="17">
         <f>HPEC!F2*'IEA Data'!$D$4</f>
-        <v>3.8458261869817944E-7</v>
+        <v>1.9458578819340353E-7</v>
       </c>
       <c r="G2" s="17">
         <f>HPEC!G2*'IEA Data'!$D$4</f>
-        <v>3.7752605688720286E-7</v>
+        <v>1.9101540675866177E-7</v>
       </c>
       <c r="H2" s="17">
         <f>HPEC!H2*'IEA Data'!$D$4</f>
-        <v>3.7046949507622632E-7</v>
+        <v>1.8744502532392004E-7</v>
       </c>
       <c r="I2" s="17">
         <f>HPEC!I2*'IEA Data'!$D$4</f>
-        <v>3.6341293326525154E-7</v>
+        <v>1.8387464388917916E-7</v>
       </c>
       <c r="J2" s="17">
         <f>HPEC!J2*'IEA Data'!$D$4</f>
-        <v>3.5635637145427495E-7</v>
+        <v>1.8030426245443741E-7</v>
       </c>
       <c r="K2" s="17">
         <f>HPEC!K2*'IEA Data'!$D$4</f>
-        <v>3.4929980964330012E-7</v>
+        <v>1.7673388101969655E-7</v>
       </c>
       <c r="L2" s="17">
         <f>HPEC!L2*'IEA Data'!$D$4</f>
-        <v>3.4224324783232353E-7</v>
+        <v>1.7316349958495477E-7</v>
       </c>
       <c r="M2" s="17">
         <f>HPEC!M2*'IEA Data'!$D$4</f>
-        <v>3.3518668602134869E-7</v>
+        <v>1.6959311815021391E-7</v>
       </c>
       <c r="N2" s="17">
         <f>HPEC!N2*'IEA Data'!$D$4</f>
-        <v>3.2813012421037216E-7</v>
+        <v>1.6602273671547219E-7</v>
       </c>
       <c r="O2" s="17">
         <f>HPEC!O2*'IEA Data'!$D$4</f>
-        <v>3.2107356239939732E-7</v>
+        <v>1.6245235528073128E-7</v>
       </c>
       <c r="P2" s="17">
         <f>HPEC!P2*'IEA Data'!$D$4</f>
-        <v>3.1534010592797952E-7</v>
+        <v>1.5955142036500393E-7</v>
       </c>
       <c r="Q2" s="17">
         <f>HPEC!Q2*'IEA Data'!$D$4</f>
-        <v>3.0960664945656172E-7</v>
+        <v>1.566504854492766E-7</v>
       </c>
       <c r="R2" s="17">
         <f>HPEC!R2*'IEA Data'!$D$4</f>
-        <v>3.0387319298514391E-7</v>
+        <v>1.5374955053354928E-7</v>
       </c>
       <c r="S2" s="17">
         <f>HPEC!S2*'IEA Data'!$D$4</f>
-        <v>2.9813973651372606E-7</v>
+        <v>1.5084861561782187E-7</v>
       </c>
       <c r="T2" s="17">
         <f>HPEC!T2*'IEA Data'!$D$4</f>
-        <v>2.9240628004230825E-7</v>
+        <v>1.4794768070209455E-7</v>
       </c>
       <c r="U2" s="17">
         <f>HPEC!U2*'IEA Data'!$D$4</f>
-        <v>2.8667282357089045E-7</v>
+        <v>1.4504674578636722E-7</v>
       </c>
       <c r="V2" s="17">
         <f>HPEC!V2*'IEA Data'!$D$4</f>
-        <v>2.8093936709947264E-7</v>
+        <v>1.4214581087063987E-7</v>
       </c>
       <c r="W2" s="17">
         <f>HPEC!W2*'IEA Data'!$D$4</f>
-        <v>2.7520591062805484E-7</v>
+        <v>1.3924487595491252E-7</v>
       </c>
       <c r="X2" s="17">
         <f>HPEC!X2*'IEA Data'!$D$4</f>
-        <v>2.6947245415663704E-7</v>
+        <v>1.3634394103918516E-7</v>
       </c>
       <c r="Y2" s="17">
         <f>HPEC!Y2*'IEA Data'!$D$4</f>
-        <v>2.6373899768521923E-7</v>
+        <v>1.3344300612345784E-7</v>
       </c>
       <c r="Z2" s="17">
         <f>HPEC!Z2*'IEA Data'!$D$4</f>
-        <v>2.5800554121380138E-7</v>
+        <v>1.3054207120773049E-7</v>
       </c>
       <c r="AA2" s="17">
         <f>HPEC!AA2*'IEA Data'!$D$4</f>
-        <v>2.5227208474238357E-7</v>
+        <v>1.2764113629200314E-7</v>
       </c>
       <c r="AB2" s="17">
         <f>HPEC!AB2*'IEA Data'!$D$4</f>
-        <v>2.4653862827096577E-7</v>
+        <v>1.2474020137627581E-7</v>
       </c>
       <c r="AC2" s="17">
         <f>HPEC!AC2*'IEA Data'!$D$4</f>
-        <v>2.4080517179954797E-7</v>
+        <v>1.2183926646054846E-7</v>
       </c>
       <c r="AD2" s="17">
         <f>HPEC!AD2*'IEA Data'!$D$4</f>
-        <v>2.3507171532813019E-7</v>
+        <v>1.1893833154482112E-7</v>
       </c>
       <c r="AE2" s="17">
         <f>HPEC!AE2*'IEA Data'!$D$4</f>
-        <v>2.2933825885671233E-7</v>
+        <v>1.1603739662909377E-7</v>
       </c>
       <c r="AF2" s="17">
         <f>HPEC!AF2*'IEA Data'!$D$4</f>
-        <v>2.2360480238529453E-7</v>
+        <v>1.131364617133664E-7</v>
       </c>
       <c r="AG2" s="17">
         <f>HPEC!AG2*'IEA Data'!$D$4</f>
-        <v>2.1787134591387672E-7</v>
+        <v>1.1023552679763908E-7</v>
       </c>
       <c r="AH2" s="12">
         <f>HPEC!AH2*'IEA Data'!$D$4</f>
-        <v>2.1213788944245895E-7</v>
+        <v>1.0733459188191174E-7</v>
       </c>
       <c r="AI2" s="12">
         <f>HPEC!AI2*'IEA Data'!$D$4</f>
-        <v>2.0640443297104109E-7</v>
+        <v>1.0443365696618439E-7</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -2332,140 +2357,140 @@
         <v>16</v>
       </c>
       <c r="B3" s="17">
-        <f>HPEC!B3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <f>HPEC!B3*'IEA Data'!$D$8*About!$A$57</f>
+        <v>3.348092353322799E-7</v>
       </c>
       <c r="C3" s="17">
         <f>HPEC!C3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="D3" s="17">
         <f>HPEC!D3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="E3" s="17">
         <f>HPEC!E3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="F3" s="17">
         <f>HPEC!F3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="G3" s="17">
         <f>HPEC!G3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="H3" s="17">
         <f>HPEC!H3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="I3" s="17">
         <f>HPEC!I3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="J3" s="17">
         <f>HPEC!J3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="K3" s="17">
         <f>HPEC!K3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="L3" s="17">
         <f>HPEC!L3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="M3" s="17">
         <f>HPEC!M3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="N3" s="17">
         <f>HPEC!N3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="O3" s="17">
         <f>HPEC!O3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="P3" s="17">
         <f>HPEC!P3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="Q3" s="17">
         <f>HPEC!Q3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="R3" s="17">
         <f>HPEC!R3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="S3" s="17">
         <f>HPEC!S3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="T3" s="17">
         <f>HPEC!T3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="U3" s="17">
         <f>HPEC!U3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="V3" s="17">
         <f>HPEC!V3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="W3" s="17">
         <f>HPEC!W3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="X3" s="17">
         <f>HPEC!X3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="Y3" s="17">
         <f>HPEC!Y3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="Z3" s="17">
         <f>HPEC!Z3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AA3" s="17">
         <f>HPEC!AA3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AB3" s="17">
         <f>HPEC!AB3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AC3" s="17">
         <f>HPEC!AC3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AD3" s="17">
         <f>HPEC!AD3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AE3" s="17">
         <f>HPEC!AE3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AF3" s="17">
         <f>HPEC!AF3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AG3" s="17">
         <f>HPEC!AG3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AH3" s="17">
         <f>HPEC!AH3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
       <c r="AI3" s="17">
         <f>HPEC!AI3*'IEA Data'!$D$8</f>
-        <v>1.307839644173545E-6</v>
+        <v>6.617225938435121E-7</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -2473,140 +2498,140 @@
         <v>19</v>
       </c>
       <c r="B4" s="17">
-        <f>HPEC!B4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <f>HPEC!B4*'IEA Data'!$D$12*About!$A$57</f>
+        <v>1.0450557146799009E-6</v>
       </c>
       <c r="C4" s="17">
         <f>HPEC!C4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="D4" s="17">
         <f>HPEC!D4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="E4" s="17">
         <f>HPEC!E4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="F4" s="17">
         <f>HPEC!F4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="G4" s="17">
         <f>HPEC!G4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="H4" s="17">
         <f>HPEC!H4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="I4" s="17">
         <f>HPEC!I4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="J4" s="17">
         <f>HPEC!J4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="K4" s="17">
         <f>HPEC!K4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="L4" s="17">
         <f>HPEC!L4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="M4" s="17">
         <f>HPEC!M4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="N4" s="17">
         <f>HPEC!N4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="O4" s="17">
         <f>HPEC!O4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="P4" s="17">
         <f>HPEC!P4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="Q4" s="17">
         <f>HPEC!Q4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="R4" s="17">
         <f>HPEC!R4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="S4" s="17">
         <f>HPEC!S4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="T4" s="17">
         <f>HPEC!T4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="U4" s="17">
         <f>HPEC!U4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="V4" s="17">
         <f>HPEC!V4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="W4" s="17">
         <f>HPEC!W4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="X4" s="17">
         <f>HPEC!X4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="Y4" s="17">
         <f>HPEC!Y4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="Z4" s="17">
         <f>HPEC!Z4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AA4" s="17">
         <f>HPEC!AA4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AB4" s="17">
         <f>HPEC!AB4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AC4" s="17">
         <f>HPEC!AC4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AD4" s="17">
         <f>HPEC!AD4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AE4" s="17">
         <f>HPEC!AE4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AF4" s="17">
         <f>HPEC!AF4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AG4" s="17">
         <f>HPEC!AG4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AH4" s="12">
         <f>HPEC!AH4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AI4" s="12">
         <f>HPEC!AI4*'IEA Data'!$D$12</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
@@ -2615,139 +2640,139 @@
       </c>
       <c r="B5" s="12">
         <f>B4</f>
-        <v>4.0822210076494796E-6</v>
+        <v>1.0450557146799009E-6</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ref="C5:AI5" si="0">C4</f>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="P5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="Q5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="R5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="S5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="U5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="W5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="Y5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AA5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" si="0"/>
-        <v>4.0822210076494796E-6</v>
+        <v>2.0654656599978688E-6</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
